--- a/3_Component_Results/PUBCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,19 +600,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.3798246680479167</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-0.8425559348927294</v>
       </c>
       <c r="D2">
-        <v>0.1525974427117518</v>
-      </c>
-      <c r="E2">
-        <v>0.1856427917165746</v>
-      </c>
-      <c r="F2">
-        <v>0.2910869938455108</v>
+        <v>-0.4710895806030492</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -620,25 +614,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-0.9951533776044812</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-0.5447498505251502</v>
       </c>
       <c r="D3">
-        <v>0.2174267239234098</v>
+        <v>0.1719753525533037</v>
       </c>
       <c r="E3">
-        <v>-0.02733311250955239</v>
-      </c>
-      <c r="F3">
-        <v>-0.5681199322572326</v>
-      </c>
-      <c r="G3">
-        <v>0.006929808176920349</v>
-      </c>
-      <c r="H3">
-        <v>-0.01922571017524893</v>
+        <v>-0.1547284656984971</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,19 +631,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-0.76217657444856</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.181830657317505</v>
       </c>
       <c r="D4">
-        <v>-0.5582646274930312</v>
-      </c>
-      <c r="E4">
-        <v>-0.0006139616534853176</v>
-      </c>
-      <c r="F4">
-        <v>-0.04884156077943663</v>
+        <v>-0.1843443163026848</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,25 +645,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.7400952848105362</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.1811144691491223</v>
       </c>
       <c r="D5">
-        <v>-0.04561171362587413</v>
+        <v>0.5864610786773027</v>
       </c>
       <c r="E5">
-        <v>0.0719336108716106</v>
-      </c>
-      <c r="F5">
-        <v>0.3096214361516587</v>
-      </c>
-      <c r="G5">
-        <v>0.1365013416902627</v>
-      </c>
-      <c r="H5">
-        <v>0.1732760957837058</v>
+        <v>1.454475696119019</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,19 +662,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.1355027555232481</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.4957797984849321</v>
       </c>
       <c r="D6">
-        <v>0.2189401559592881</v>
-      </c>
-      <c r="E6">
-        <v>0.03812807081753528</v>
-      </c>
-      <c r="F6">
-        <v>0.08506109990966593</v>
+        <v>1.366260700244979</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,25 +676,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.276839642525644</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1.331926091486437</v>
       </c>
       <c r="D7">
-        <v>0.05072649115112432</v>
+        <v>0.3289957548215483</v>
       </c>
       <c r="E7">
-        <v>-0.3258500826495095</v>
-      </c>
-      <c r="F7">
-        <v>-0.3946899367757766</v>
-      </c>
-      <c r="G7">
-        <v>-0.1036585200013462</v>
-      </c>
-      <c r="H7">
-        <v>0.1398947094465086</v>
+        <v>-0.4140922542222967</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,19 +693,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1.281199600335313</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.6802132081181611</v>
       </c>
       <c r="D8">
-        <v>-0.04347248347916377</v>
-      </c>
-      <c r="E8">
-        <v>0.1065666034565567</v>
-      </c>
-      <c r="F8">
-        <v>0.2779676877716639</v>
+        <v>-0.2760192758971414</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,25 +707,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.7236856915973249</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-0.2951365587733932</v>
       </c>
       <c r="D9">
-        <v>0.2588504048954121</v>
+        <v>0.05655405229093438</v>
       </c>
       <c r="E9">
-        <v>0.1132212414908053</v>
-      </c>
-      <c r="F9">
-        <v>-0.01809052891680102</v>
-      </c>
-      <c r="G9">
-        <v>0.02999607868808596</v>
-      </c>
-      <c r="H9">
-        <v>0.1723356353688246</v>
+        <v>-0.09818563495309723</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,19 +724,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-0.5539869636688053</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.029214903949665</v>
       </c>
       <c r="D10">
-        <v>-0.0454296772580704</v>
-      </c>
-      <c r="E10">
-        <v>0.1352471934368112</v>
-      </c>
-      <c r="F10">
-        <v>0.3263161986576648</v>
+        <v>0.05579492833574295</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,25 +738,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.0746445812077354</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.06677632485114771</v>
       </c>
       <c r="D11">
-        <v>0.2037449454707741</v>
+        <v>0.4011913583560017</v>
       </c>
       <c r="E11">
-        <v>-0.1148980902363661</v>
-      </c>
-      <c r="F11">
-        <v>-0.2069445719455131</v>
-      </c>
-      <c r="G11">
-        <v>-0.02866191367665755</v>
-      </c>
-      <c r="H11">
-        <v>-0.08508914726839129</v>
+        <v>0.4725822731440701</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,19 +755,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-0.2705212703219219</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.3690323037479715</v>
       </c>
       <c r="D12">
-        <v>-0.2391036265535433</v>
-      </c>
-      <c r="E12">
-        <v>-0.1352578039233663</v>
-      </c>
-      <c r="F12">
-        <v>-0.1713432243765141</v>
+        <v>0.3863281960359473</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,25 +769,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.6081359303015148</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.4880152602917036</v>
       </c>
       <c r="D13">
-        <v>-0.06965616012075782</v>
+        <v>-0.2546267300679688</v>
       </c>
       <c r="E13">
-        <v>-0.1175916771263417</v>
-      </c>
-      <c r="F13">
-        <v>-0.05870882364952479</v>
-      </c>
-      <c r="G13">
-        <v>-0.0318879971098483</v>
-      </c>
-      <c r="H13">
-        <v>0.01614754271075469</v>
+        <v>-0.1108182093661583</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -876,19 +786,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.5576714204124614</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>-0.1355979180752201</v>
       </c>
       <c r="D14">
-        <v>0.06031998834322388</v>
-      </c>
-      <c r="E14">
-        <v>0.02486347911359132</v>
-      </c>
-      <c r="F14">
-        <v>0.02479695951021199</v>
+        <v>-0.102168792566701</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -896,25 +800,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.195917906418444</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.1752170064679177</v>
       </c>
       <c r="D15">
-        <v>-0.04825125439100469</v>
+        <v>-0.01268178721090857</v>
       </c>
       <c r="E15">
-        <v>-0.1104511914653159</v>
-      </c>
-      <c r="F15">
-        <v>0.1413293737201116</v>
-      </c>
-      <c r="G15">
-        <v>-0.01312897168003241</v>
-      </c>
-      <c r="H15">
-        <v>-1.005577433278759</v>
+        <v>-0.3269333999542</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -922,19 +817,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>-0.126965752076913</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.02685856012789151</v>
       </c>
       <c r="D16">
-        <v>0.1808697210589117</v>
-      </c>
-      <c r="E16">
-        <v>-0.02877427539630156</v>
-      </c>
-      <c r="F16">
-        <v>-1.042379970426495</v>
+        <v>-0.3637359371019357</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -942,25 +831,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.1540111609310202</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.3236364516183131</v>
       </c>
       <c r="D17">
-        <v>-1.002280484942873</v>
+        <v>-0.5677500874123353</v>
       </c>
       <c r="E17">
-        <v>-0.33488317852931</v>
-      </c>
-      <c r="F17">
-        <v>-0.2117878746612689</v>
-      </c>
-      <c r="G17">
-        <v>-0.2402224446017556</v>
-      </c>
-      <c r="H17">
-        <v>-0.4050605625597115</v>
+        <v>-0.6646985397327256</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -968,31 +848,19 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.6786440333245596</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.1965041205885711</v>
       </c>
       <c r="D18">
-        <v>0.1594580921624953</v>
+        <v>-0.2836956237172927</v>
       </c>
       <c r="E18">
-        <v>0.1931090285612242</v>
+        <v>0.2042344420026296</v>
       </c>
       <c r="F18">
-        <v>-0.02405764654427855</v>
-      </c>
-      <c r="G18">
-        <v>-0.2005427341080264</v>
-      </c>
-      <c r="H18">
-        <v>0.0725298201177082</v>
-      </c>
-      <c r="I18">
-        <v>0.0226674967236562</v>
-      </c>
-      <c r="J18">
-        <v>0.0338227391090129</v>
+        <v>0.03570973266033661</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1000,25 +868,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-0.3559622127510664</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-0.4490187734141529</v>
       </c>
       <c r="D19">
-        <v>-0.1893807962411387</v>
+        <v>0.05762316071451318</v>
       </c>
       <c r="E19">
-        <v>-0.1455005517931482</v>
-      </c>
-      <c r="F19">
-        <v>-0.0740814611704082</v>
-      </c>
-      <c r="G19">
-        <v>-0.04941168567071941</v>
-      </c>
-      <c r="H19">
-        <v>0.1329576456398342</v>
+        <v>0.1348446391911579</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1026,31 +885,25 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-0.2596379771730142</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.33170462188491</v>
       </c>
       <c r="D20">
-        <v>0.1999999999999886</v>
+        <v>0.3317949831062492</v>
       </c>
       <c r="E20">
-        <v>0.2500000000000142</v>
+        <v>0.02381211141708661</v>
       </c>
       <c r="F20">
-        <v>0.3299079895549255</v>
+        <v>1.024067473483612</v>
       </c>
       <c r="G20">
-        <v>0.299999999999983</v>
+        <v>0.7614280992174542</v>
       </c>
       <c r="H20">
-        <v>2.842170943040401E-14</v>
-      </c>
-      <c r="I20">
-        <v>-0.1000000000000085</v>
-      </c>
-      <c r="J20">
-        <v>1.4210854715202E-14</v>
+        <v>-0.2999999999999858</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1058,25 +911,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.1317046218849214</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.08179498310627761</v>
       </c>
       <c r="D21">
-        <v>0.0799079895549539</v>
+        <v>-0.2261878885828992</v>
       </c>
       <c r="E21">
-        <v>0.04999999999999721</v>
+        <v>0.7740674734835977</v>
       </c>
       <c r="F21">
-        <v>-0.2499999999999858</v>
+        <v>0.5114280992174685</v>
       </c>
       <c r="G21">
-        <v>-0.3499999999999943</v>
-      </c>
-      <c r="H21">
-        <v>-0.25</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1084,31 +934,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001886993551323712</v>
       </c>
       <c r="C22">
-        <v>0.0999999999999801</v>
+        <v>-0.1761878885829163</v>
       </c>
       <c r="D22">
-        <v>-0.2000000000000029</v>
+        <v>0.8240674734835807</v>
       </c>
       <c r="E22">
-        <v>-0.3000000000000114</v>
+        <v>0.5614280992174514</v>
       </c>
       <c r="F22">
-        <v>-0.2000000000000171</v>
+        <v>-0.5000000000000171</v>
       </c>
       <c r="G22">
-        <v>-0.3648928967371035</v>
+        <v>0.5951285663450391</v>
       </c>
       <c r="H22">
-        <v>-0.4000000000000171</v>
+        <v>0.5999999999999829</v>
       </c>
       <c r="I22">
-        <v>-0.09999080116070053</v>
+        <v>-0.4916058519991538</v>
       </c>
       <c r="J22">
-        <v>-0.2200000000000273</v>
+        <v>-0.2670926739444042</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1116,28 +966,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.2761878885828964</v>
       </c>
       <c r="C23">
-        <v>-0.2000000000000029</v>
+        <v>0.8240674734835807</v>
       </c>
       <c r="D23">
-        <v>-0.1999999999999886</v>
+        <v>0.6614280992174741</v>
       </c>
       <c r="E23">
-        <v>-0.09999999999999432</v>
+        <v>-0.3999999999999944</v>
       </c>
       <c r="F23">
-        <v>-0.2648928967370807</v>
+        <v>0.6951285663450619</v>
       </c>
       <c r="G23">
-        <v>-0.2999999999999943</v>
+        <v>0.7000000000000057</v>
       </c>
       <c r="H23">
-        <v>-0.09999080116070053</v>
+        <v>-0.4916058519991538</v>
       </c>
       <c r="I23">
-        <v>-0.2200000000000273</v>
+        <v>-0.2670926739444042</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1145,25 +995,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1.024067473483584</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>0.8614280992174628</v>
       </c>
       <c r="D24">
-        <v>-0.09999999999999432</v>
+        <v>-0.3999999999999944</v>
       </c>
       <c r="E24">
-        <v>-0.1648928967371006</v>
+        <v>0.795128566345042</v>
       </c>
       <c r="F24">
-        <v>-0.2000000000000142</v>
+        <v>0.7999999999999858</v>
       </c>
       <c r="G24">
-        <v>9.198839322266394E-06</v>
+        <v>-0.391605851999131</v>
       </c>
       <c r="H24">
-        <v>-0.1200000000000045</v>
+        <v>-0.1670926739443814</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1171,34 +1021,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.8614280992174628</v>
       </c>
       <c r="C25">
-        <v>-0.09999999999999432</v>
+        <v>-0.3999999999999944</v>
       </c>
       <c r="D25">
-        <v>-0.1648928967371006</v>
+        <v>0.795128566345042</v>
       </c>
       <c r="E25">
-        <v>-0.2000000000000142</v>
+        <v>0.7999999999999858</v>
       </c>
       <c r="F25">
-        <v>9.198839322266394E-06</v>
+        <v>-0.391605851999131</v>
       </c>
       <c r="G25">
-        <v>-0.1200000000000045</v>
+        <v>-0.1670926739443814</v>
       </c>
       <c r="H25">
-        <v>-0.3200000000000074</v>
+        <v>-0.9812258865275252</v>
       </c>
       <c r="I25">
-        <v>-0.2200000000000131</v>
+        <v>0.07999999999998691</v>
       </c>
       <c r="J25">
-        <v>-0.06999999900001797</v>
+        <v>-1.170185044412051</v>
       </c>
       <c r="K25">
-        <v>-0.4200000000000301</v>
+        <v>-0.4802901972718701</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1206,31 +1056,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C26">
-        <v>0.03510710326291355</v>
+        <v>0.9951285663450562</v>
       </c>
       <c r="D26">
-        <v>-0.09999999999999998</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E26">
-        <v>9.198839316604257E-06</v>
+        <v>-0.3916058519991367</v>
       </c>
       <c r="F26">
-        <v>-0.2200000000000102</v>
+        <v>-0.2670926739443871</v>
       </c>
       <c r="G26">
-        <v>-0.2999999999999943</v>
+        <v>-0.9612258865275121</v>
       </c>
       <c r="H26">
-        <v>-0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="I26">
-        <v>0.05000000099999513</v>
+        <v>-1.050185044412038</v>
       </c>
       <c r="J26">
-        <v>-0.300000000000017</v>
+        <v>-0.360290197271857</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1238,28 +1088,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>0.9600214630821426</v>
       </c>
       <c r="C27">
-        <v>-0.1200000000000159</v>
+        <v>0.8799999999999841</v>
       </c>
       <c r="D27">
-        <v>-0.04999080116067489</v>
+        <v>-0.4416058519991282</v>
       </c>
       <c r="E27">
-        <v>-0.1700000000000017</v>
+        <v>-0.2170926739443786</v>
       </c>
       <c r="F27">
-        <v>-0.1700000000000017</v>
+        <v>-0.8312258865275195</v>
       </c>
       <c r="G27">
-        <v>-0.09000000000000341</v>
+        <v>0.2099999999999966</v>
       </c>
       <c r="H27">
-        <v>0.0300000009999763</v>
+        <v>-1.070185044412057</v>
       </c>
       <c r="I27">
-        <v>-0.3400000000000177</v>
+        <v>-0.4002901972718576</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1267,25 +1117,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>9.198839316604257E-06</v>
+        <v>-0.3916058519991367</v>
       </c>
       <c r="D28">
-        <v>-0.02000000000001023</v>
+        <v>-0.06709267394438712</v>
       </c>
       <c r="E28">
-        <v>-0.09999999999999432</v>
+        <v>-0.7612258865275121</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G28">
-        <v>0.05000000099999513</v>
+        <v>-1.050185044412038</v>
       </c>
       <c r="H28">
-        <v>-0.4000000000000171</v>
+        <v>-0.460290197271857</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1293,34 +1143,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-0.3916150508384533</v>
       </c>
       <c r="C29">
-        <v>-0.02000000000002444</v>
+        <v>-0.06709267394440133</v>
       </c>
       <c r="D29">
-        <v>-0.07999999999998408</v>
+        <v>-0.7412258865275019</v>
       </c>
       <c r="E29">
-        <v>-1.4210854715202E-14</v>
+        <v>0.2999999999999858</v>
       </c>
       <c r="F29">
-        <v>0.09000000099999284</v>
+        <v>-1.01018504441204</v>
       </c>
       <c r="G29">
-        <v>-0.2600000000000193</v>
+        <v>-0.3202901972718593</v>
       </c>
       <c r="H29">
-        <v>-0.2600000000000193</v>
+        <v>0.9462757877985695</v>
       </c>
       <c r="I29">
-        <v>-0.3599999999999994</v>
+        <v>0.240008545046976</v>
       </c>
       <c r="J29">
-        <v>1.239999999999995</v>
+        <v>-1.369651846369791</v>
       </c>
       <c r="K29">
-        <v>-0.05999999999998806</v>
+        <v>2.65850917732945</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1328,31 +1178,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-0.04709267394437688</v>
       </c>
       <c r="C30">
-        <v>-0.07999999999998408</v>
+        <v>-0.7412258865275019</v>
       </c>
       <c r="D30">
-        <v>0.02000000000001023</v>
+        <v>0.3200000000000102</v>
       </c>
       <c r="E30">
-        <v>0.1500000009999809</v>
+        <v>-0.9501850444120523</v>
       </c>
       <c r="F30">
-        <v>-0.2000000000000313</v>
+        <v>-0.2602901972718712</v>
       </c>
       <c r="G30">
-        <v>-0.2000000000000313</v>
+        <v>1.006275787798558</v>
       </c>
       <c r="H30">
-        <v>-0.3000000000000114</v>
+        <v>0.3000085450469641</v>
       </c>
       <c r="I30">
-        <v>1.279999999999987</v>
+        <v>-1.329651846369799</v>
       </c>
       <c r="J30">
-        <v>-0.01999999999999597</v>
+        <v>2.698509177329442</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1360,28 +1210,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>-0.6612258865275178</v>
       </c>
       <c r="C31">
-        <v>0.2999999999999972</v>
+        <v>0.5999999999999972</v>
       </c>
       <c r="D31">
-        <v>0.1500000009999809</v>
+        <v>-0.9501850444120523</v>
       </c>
       <c r="E31">
-        <v>-0.2400000000000234</v>
+        <v>-0.3002901972718633</v>
       </c>
       <c r="F31">
-        <v>-0.2100000000000222</v>
+        <v>0.9962757877985666</v>
       </c>
       <c r="G31">
-        <v>-0.3100000000000023</v>
+        <v>0.2900085450469732</v>
       </c>
       <c r="H31">
-        <v>1.289999999999992</v>
+        <v>-1.319651846369794</v>
       </c>
       <c r="I31">
-        <v>-0.009999999999990905</v>
+        <v>2.708509177329447</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1389,25 +1239,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C32">
-        <v>1.050000000999995</v>
+        <v>-0.05018504441203819</v>
       </c>
       <c r="D32">
-        <v>0.09999999999998299</v>
+        <v>0.03970980272814306</v>
       </c>
       <c r="E32">
-        <v>-0.4000000000000171</v>
+        <v>0.8062757877985718</v>
       </c>
       <c r="F32">
-        <v>-0.3999999999999971</v>
+        <v>0.2000085450469783</v>
       </c>
       <c r="G32">
-        <v>1.199999999999997</v>
+        <v>-1.409651846369789</v>
       </c>
       <c r="H32">
-        <v>-0.09999999999998577</v>
+        <v>2.618509177329452</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1265,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-1.100185045412033</v>
       </c>
       <c r="C33">
-        <v>-0.1000000000000227</v>
+        <v>-0.1602901972718627</v>
       </c>
       <c r="D33">
-        <v>-0.3000000000000114</v>
+        <v>0.9062757877985774</v>
       </c>
       <c r="E33">
-        <v>-0.3999999999999915</v>
+        <v>0.200008545046984</v>
       </c>
       <c r="F33">
-        <v>1.200000000000003</v>
+        <v>-1.409651846369783</v>
       </c>
       <c r="G33">
-        <v>-0.0999999999999801</v>
+        <v>2.618509177329458</v>
       </c>
       <c r="H33">
-        <v>0.3999999999999773</v>
+        <v>-0.5580856546984592</v>
       </c>
       <c r="I33">
-        <v>-0.1000000000000085</v>
+        <v>0.3315486822015572</v>
       </c>
       <c r="J33">
-        <v>-0.3000000000000114</v>
+        <v>-1.944079640195553</v>
       </c>
       <c r="K33">
-        <v>1.399999999999991</v>
+        <v>0.40000558765135</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1300,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>-0.06029019727183993</v>
       </c>
       <c r="C34">
-        <v>-0.3000000000000114</v>
+        <v>0.9062757877985774</v>
       </c>
       <c r="D34">
-        <v>-0.3999999999999915</v>
+        <v>0.200008545046984</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>-1.609651846369786</v>
       </c>
       <c r="F34">
-        <v>-0.299999999999983</v>
+        <v>2.418509177329455</v>
       </c>
       <c r="G34">
-        <v>0.1999999999999744</v>
+        <v>-0.758085654698462</v>
       </c>
       <c r="H34">
-        <v>-0.3000000000000114</v>
+        <v>0.1315486822015543</v>
       </c>
       <c r="I34">
-        <v>-0.5000000000000142</v>
+        <v>-2.144079640195556</v>
       </c>
       <c r="J34">
-        <v>1.09999999999998</v>
+        <v>0.1000055876513386</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1332,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1.206275787798589</v>
       </c>
       <c r="C35">
-        <v>0.2999999999999969</v>
+        <v>0.9000085450469724</v>
       </c>
       <c r="D35">
-        <v>1.09999999999998</v>
+        <v>-1.509651846369806</v>
       </c>
       <c r="E35">
-        <v>-0.299999999999983</v>
+        <v>2.418509177329455</v>
       </c>
       <c r="F35">
-        <v>0.09999999999996589</v>
+        <v>-0.8580856546984705</v>
       </c>
       <c r="G35">
-        <v>-0.4000000000000199</v>
+        <v>0.03154868220154583</v>
       </c>
       <c r="H35">
-        <v>-0.6000000000000227</v>
+        <v>-2.244079640195565</v>
       </c>
       <c r="I35">
-        <v>1.09999999999998</v>
+        <v>0.1000055876513386</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1361,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>0.6000085450469754</v>
       </c>
       <c r="C36">
-        <v>1.299999999999983</v>
+        <v>-1.309651846369803</v>
       </c>
       <c r="D36">
-        <v>-0.8999999999999773</v>
+        <v>1.818509177329461</v>
       </c>
       <c r="E36">
-        <v>-0.6000000000000227</v>
+        <v>-1.558085654698459</v>
       </c>
       <c r="F36">
-        <v>-0.3000000000000114</v>
+        <v>0.1315486822015543</v>
       </c>
       <c r="G36">
-        <v>-0.2000000000000313</v>
+        <v>-1.844079640195573</v>
       </c>
       <c r="H36">
-        <v>1.499999999999972</v>
+        <v>0.5000055876513301</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1387,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-2.609651846369786</v>
       </c>
       <c r="C37">
-        <v>-1.199999999999989</v>
+        <v>1.518509177329449</v>
       </c>
       <c r="D37">
-        <v>-2.842170943040401E-14</v>
+        <v>-0.9580856546984649</v>
       </c>
       <c r="E37">
-        <v>-0.4000000000000199</v>
+        <v>0.03154868220154583</v>
       </c>
       <c r="F37">
-        <v>-0.6000000000000227</v>
+        <v>-2.244079640195565</v>
       </c>
       <c r="G37">
-        <v>1.09999999999998</v>
+        <v>0.1000055876513386</v>
       </c>
       <c r="H37">
-        <v>0.5999999999999943</v>
+        <v>-0.5233623182505625</v>
       </c>
       <c r="I37">
-        <v>-2.700000000000003</v>
+        <v>4.987355777631223</v>
       </c>
       <c r="J37">
-        <v>0.09999999999999432</v>
+        <v>0.02253521981180029</v>
       </c>
       <c r="K37">
-        <v>-0.1000000000000085</v>
+        <v>-0.1231996868497021</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1422,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2.718509177329438</v>
       </c>
       <c r="C38">
-        <v>0.2999999999999545</v>
+        <v>-0.6580856546984819</v>
       </c>
       <c r="D38">
-        <v>-1.100000000000009</v>
+        <v>-0.6684513177984428</v>
       </c>
       <c r="E38">
-        <v>-1.300000000000011</v>
+        <v>-2.944079640195553</v>
       </c>
       <c r="F38">
-        <v>1.09999999999998</v>
+        <v>0.1000055876513386</v>
       </c>
       <c r="G38">
-        <v>0.6500000000000057</v>
+        <v>-0.4733623182505511</v>
       </c>
       <c r="H38">
-        <v>-2.599999999999994</v>
+        <v>5.087355777631231</v>
       </c>
       <c r="I38">
-        <v>0.2000000000000028</v>
+        <v>0.1225352198118088</v>
       </c>
       <c r="J38">
-        <v>-2.839395385478838E-14</v>
+        <v>-0.02319968684972201</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1454,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-0.9580856546984364</v>
       </c>
       <c r="C39">
-        <v>-0.7000000000000171</v>
+        <v>-0.2684513177984513</v>
       </c>
       <c r="D39">
-        <v>-1.100000000000023</v>
+        <v>-2.744079640195565</v>
       </c>
       <c r="E39">
-        <v>1.299999999999969</v>
+        <v>0.3000055876513272</v>
       </c>
       <c r="F39">
-        <v>0.7000000000000028</v>
+        <v>-0.423362318250554</v>
       </c>
       <c r="G39">
-        <v>-2.599999999999994</v>
+        <v>5.087355777631231</v>
       </c>
       <c r="H39">
-        <v>0.2000000000000028</v>
+        <v>0.1225352198118088</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-0.02319968684969362</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1483,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>0.4315486822015657</v>
       </c>
       <c r="C40">
-        <v>-0.6000000000000227</v>
+        <v>-2.244079640195565</v>
       </c>
       <c r="D40">
-        <v>1.299999999999969</v>
+        <v>0.3000055876513272</v>
       </c>
       <c r="E40">
-        <v>0.7000000000000028</v>
+        <v>-0.423362318250554</v>
       </c>
       <c r="F40">
-        <v>-2.449999999999989</v>
+        <v>5.237355777631237</v>
       </c>
       <c r="G40">
-        <v>0.2999999999999829</v>
+        <v>0.2225352198117889</v>
       </c>
       <c r="H40">
-        <v>0.0999999999999801</v>
+        <v>0.07680031315028649</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1509,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-1.644079640195542</v>
       </c>
       <c r="C41">
-        <v>0.8000000000000114</v>
+        <v>-0.1999944123486301</v>
       </c>
       <c r="D41">
-        <v>0.9999999999999858</v>
+        <v>-0.123362318250571</v>
       </c>
       <c r="E41">
-        <v>-2.300000000000011</v>
+        <v>5.387355777631214</v>
       </c>
       <c r="F41">
-        <v>0.2999999999999829</v>
+        <v>0.2225352198117889</v>
       </c>
       <c r="G41">
-        <v>0.0999999999999801</v>
+        <v>0.07680031315028649</v>
       </c>
       <c r="H41">
-        <v>0.399999999999963</v>
+        <v>-0.04731290373116803</v>
       </c>
       <c r="I41">
-        <v>0.1000000000000086</v>
+        <v>0.7268782796002569</v>
       </c>
       <c r="J41">
-        <v>0.1999999999999886</v>
+        <v>-0.7346752961032761</v>
       </c>
       <c r="K41">
-        <v>0.1999999999999886</v>
+        <v>-0.1343669380733701</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1544,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-0.9999944123486415</v>
       </c>
       <c r="C42">
-        <v>0.7000000000000028</v>
+        <v>-0.423362318250554</v>
       </c>
       <c r="D42">
-        <v>-2</v>
+        <v>5.687355777631225</v>
       </c>
       <c r="E42">
-        <v>0.4000000000000057</v>
+        <v>0.3225352198118117</v>
       </c>
       <c r="F42">
-        <v>-0.1000000000000085</v>
+        <v>-0.1231996868497021</v>
       </c>
       <c r="G42">
-        <v>0.3999999999999772</v>
+        <v>-0.04731290373115382</v>
       </c>
       <c r="H42">
-        <v>0.299999999999983</v>
+        <v>0.9268782796002313</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>-0.9346752961032647</v>
       </c>
       <c r="J42">
-        <v>-2.842170943040401E-14</v>
+        <v>-0.3343669380733871</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1576,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>-1.123362318250557</v>
       </c>
       <c r="C43">
-        <v>-2.399999999999991</v>
+        <v>5.287355777631234</v>
       </c>
       <c r="D43">
-        <v>0.4000000000000057</v>
+        <v>0.3225352198118117</v>
       </c>
       <c r="E43">
-        <v>-0.1000000000000085</v>
+        <v>-0.1231996868497021</v>
       </c>
       <c r="F43">
-        <v>0.3999999999999772</v>
+        <v>-0.04731290373115382</v>
       </c>
       <c r="G43">
-        <v>0.0999999999999801</v>
+        <v>0.7268782796002284</v>
       </c>
       <c r="H43">
-        <v>0.1999999999999886</v>
+        <v>-0.7346752961032761</v>
       </c>
       <c r="I43">
-        <v>0.1999999999999886</v>
+        <v>-0.1343669380733701</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1605,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>7.687355777631225</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-0.07746478018819403</v>
       </c>
       <c r="D44">
-        <v>0.3999999999999915</v>
+        <v>0.3768003131502979</v>
       </c>
       <c r="E44">
-        <v>0.5</v>
+        <v>0.05268709626886897</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.6268782796002483</v>
       </c>
       <c r="G44">
-        <v>0.1000000000000085</v>
+        <v>-0.8346752961032562</v>
       </c>
       <c r="H44">
-        <v>0.1000000000000085</v>
+        <v>-0.2343669380733502</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1631,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.07746478018819403</v>
       </c>
       <c r="C45">
-        <v>0.0999999999999801</v>
+        <v>0.07680031315028649</v>
       </c>
       <c r="D45">
-        <v>0.5999999999999801</v>
+        <v>0.1526870962688491</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.6268782796002483</v>
       </c>
       <c r="F45">
-        <v>0.1000000000000085</v>
+        <v>-0.8346752961032562</v>
       </c>
       <c r="G45">
-        <v>0.1000000000000085</v>
+        <v>-0.2343669380733502</v>
       </c>
       <c r="H45">
-        <v>0.2999999999999829</v>
+        <v>-0.1160091367467971</v>
       </c>
       <c r="I45">
-        <v>-0.299999999999983</v>
+        <v>0.5423454266220915</v>
       </c>
       <c r="J45">
-        <v>-0.2000000000000171</v>
+        <v>-0.5919400257838703</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1663,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-0.02319968684969362</v>
       </c>
       <c r="C46">
-        <v>0.2999999999999971</v>
+        <v>-0.1473129037311339</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.6268782796002483</v>
       </c>
       <c r="E46">
-        <v>0.1999999999999886</v>
+        <v>-0.7346752961032761</v>
       </c>
       <c r="F46">
-        <v>0.1999999999999886</v>
+        <v>-0.1343669380733701</v>
       </c>
       <c r="G46">
-        <v>0.4000000000000057</v>
+        <v>-0.01600913674677429</v>
       </c>
       <c r="H46">
-        <v>-0.0999999999999801</v>
+        <v>0.7423454266220944</v>
       </c>
       <c r="I46">
-        <v>-1.4210854715202E-14</v>
+        <v>-0.3919400257838674</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1692,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>-0.447312903731131</v>
       </c>
       <c r="C47">
-        <v>-0.2999999999999829</v>
+        <v>0.3268782796002654</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>-0.9346752961032647</v>
       </c>
       <c r="E47">
-        <v>0.1000000000000085</v>
+        <v>-0.2343669380733502</v>
       </c>
       <c r="F47">
-        <v>0.4000000000000057</v>
+        <v>-0.01600913674677429</v>
       </c>
       <c r="G47">
-        <v>-0.0999999999999801</v>
+        <v>0.7423454266220944</v>
       </c>
       <c r="H47">
-        <v>-1.4210854715202E-14</v>
+        <v>-0.3919400257838674</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,22 +1718,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>0.6268782796002483</v>
       </c>
       <c r="C48">
-        <v>0.1000000000000085</v>
+        <v>-0.8346752961032562</v>
       </c>
       <c r="D48">
-        <v>0.1999999999999886</v>
+        <v>-0.1343669380733701</v>
       </c>
       <c r="E48">
-        <v>0.3599999999999994</v>
+        <v>-0.0560091367467806</v>
       </c>
       <c r="F48">
-        <v>-0.1399999999999864</v>
+        <v>0.7023454266220881</v>
       </c>
       <c r="G48">
-        <v>-0.04000000000002052</v>
+        <v>-0.4319400257838737</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1891,19 +1741,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.9346752961032647</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.3343669380733587</v>
       </c>
       <c r="D49">
-        <v>0.2000000000000028</v>
+        <v>-0.2160091367467772</v>
       </c>
       <c r="E49">
-        <v>-0.2000000000000029</v>
+        <v>0.6423454266220716</v>
       </c>
       <c r="F49">
-        <v>-0.100000000000037</v>
+        <v>-0.4919400257838902</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1911,16 +1761,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-0.3343669380733587</v>
       </c>
       <c r="C50">
-        <v>0.09999999999999432</v>
+        <v>-0.3160091367467857</v>
       </c>
       <c r="D50">
-        <v>-0.299999999999983</v>
+        <v>0.5423454266220915</v>
       </c>
       <c r="E50">
-        <v>-0.100000000000037</v>
+        <v>-0.4919400257838902</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1928,13 +1778,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-0.41600913674678</v>
       </c>
       <c r="C51">
-        <v>-0.4999999999999858</v>
+        <v>0.3423454266220887</v>
       </c>
       <c r="D51">
-        <v>-0.3000000000000256</v>
+        <v>-0.6919400257838788</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1942,10 +1792,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.8423454266220745</v>
       </c>
       <c r="C52">
-        <v>-1.4210854715202E-14</v>
+        <v>-0.3919400257838674</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1953,7 +1803,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>-0.3919400257838532</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -600,13 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.3798246680479167</v>
+        <v>0.961534283454867</v>
       </c>
       <c r="C2">
-        <v>-0.8425559348927294</v>
+        <v>-0.8492102350337518</v>
       </c>
       <c r="D2">
-        <v>-0.4710895806030492</v>
+        <v>-0.4689131933950392</v>
+      </c>
+      <c r="E2">
+        <v>-0.1262251404429122</v>
+      </c>
+      <c r="F2">
+        <v>0.4874609212632351</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -614,16 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.9951533776044812</v>
+        <v>-0.621510636106791</v>
       </c>
       <c r="C3">
-        <v>-0.5447498505251502</v>
+        <v>-0.3118679321594868</v>
       </c>
       <c r="D3">
-        <v>0.1719753525533037</v>
+        <v>0.4138006513411341</v>
       </c>
       <c r="E3">
-        <v>-0.1547284656984971</v>
+        <v>0.3749701737803832</v>
+      </c>
+      <c r="F3">
+        <v>-0.1533416832052836</v>
+      </c>
+      <c r="G3">
+        <v>0.3080903970312647</v>
+      </c>
+      <c r="H3">
+        <v>0.6208520849830563</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,13 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.76217657444856</v>
+        <v>0.1963739274177243</v>
       </c>
       <c r="C4">
-        <v>0.181830657317505</v>
+        <v>0.4023032862899356</v>
       </c>
       <c r="D4">
-        <v>-0.1843443163026848</v>
+        <v>-0.1434863784410823</v>
+      </c>
+      <c r="E4">
+        <v>0.300546627200859</v>
+      </c>
+      <c r="F4">
+        <v>0.5912362343788686</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -645,16 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.7400952848105362</v>
+        <v>0.4147782490519489</v>
       </c>
       <c r="C5">
-        <v>-0.1811144691491223</v>
+        <v>0.3011605888543443</v>
       </c>
       <c r="D5">
-        <v>0.5864610786773027</v>
+        <v>0.5944660815324311</v>
       </c>
       <c r="E5">
-        <v>1.454475696119019</v>
+        <v>-0.6750901325734302</v>
+      </c>
+      <c r="F5">
+        <v>1.479707314033149</v>
+      </c>
+      <c r="G5">
+        <v>-0.743546055498598</v>
+      </c>
+      <c r="H5">
+        <v>0.5410566776875924</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -662,13 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.1355027555232481</v>
+        <v>0.6400777951583052</v>
       </c>
       <c r="C6">
-        <v>0.4957797984849321</v>
+        <v>-0.7470237434450409</v>
       </c>
       <c r="D6">
-        <v>1.366260700244979</v>
+        <v>1.389026033840778</v>
+      </c>
+      <c r="E6">
+        <v>-0.8419193263713254</v>
+      </c>
+      <c r="F6">
+        <v>0.4528416818135526</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,16 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.276839642525644</v>
+        <v>1.17008587788149</v>
       </c>
       <c r="C7">
-        <v>1.331926091486437</v>
+        <v>-0.8800473971888607</v>
       </c>
       <c r="D7">
-        <v>0.3289957548215483</v>
+        <v>0.4185070730550109</v>
       </c>
       <c r="E7">
-        <v>-0.4140922542222967</v>
+        <v>-1.2922374495258</v>
+      </c>
+      <c r="F7">
+        <v>-0.4409422039088184</v>
+      </c>
+      <c r="G7">
+        <v>-0.4068984852491724</v>
+      </c>
+      <c r="H7">
+        <v>-0.4397766082908561</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -693,13 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1.281199600335313</v>
+        <v>0.3677805819038866</v>
       </c>
       <c r="C8">
-        <v>0.6802132081181611</v>
+        <v>-0.9663873668762908</v>
       </c>
       <c r="D8">
-        <v>-0.2760192758971414</v>
+        <v>-0.08972475061220564</v>
+      </c>
+      <c r="E8">
+        <v>-0.1966733617912695</v>
+      </c>
+      <c r="F8">
+        <v>-0.3017036299657008</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -707,16 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.7236856915973249</v>
+        <v>-0.04625226713304187</v>
       </c>
       <c r="C9">
-        <v>-0.2951365587733932</v>
+        <v>-0.3032399652478261</v>
       </c>
       <c r="D9">
-        <v>0.05655405229093438</v>
+        <v>-0.3208209128419526</v>
       </c>
       <c r="E9">
-        <v>-0.09818563495309723</v>
+        <v>0.1424361454404703</v>
+      </c>
+      <c r="F9">
+        <v>0.4995250345743897</v>
+      </c>
+      <c r="G9">
+        <v>-0.03945618641297705</v>
+      </c>
+      <c r="H9">
+        <v>0.1337194753737236</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,13 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.5539869636688053</v>
+        <v>-0.5796713177373647</v>
       </c>
       <c r="C10">
         <v>0.029214903949665</v>
       </c>
       <c r="D10">
-        <v>0.05579492833574295</v>
+        <v>0.4721858862331203</v>
+      </c>
+      <c r="E10">
+        <v>0.06579492833574818</v>
+      </c>
+      <c r="F10">
+        <v>0.2877000386625638</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -738,16 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.0746445812077354</v>
+        <v>0.5176155634911908</v>
       </c>
       <c r="C11">
-        <v>-0.06677632485114771</v>
+        <v>-0.069452265101063</v>
       </c>
       <c r="D11">
-        <v>0.4011913583560017</v>
+        <v>0.1651287854756731</v>
       </c>
       <c r="E11">
-        <v>0.4725822731440701</v>
+        <v>0.4278430656535193</v>
+      </c>
+      <c r="F11">
+        <v>0.4729369276256535</v>
+      </c>
+      <c r="G11">
+        <v>-0.1589194883619314</v>
+      </c>
+      <c r="H11">
+        <v>0.6043448921716248</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -755,13 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.2705212703219219</v>
+        <v>-0.03861615999510101</v>
       </c>
       <c r="C12">
-        <v>0.3690323037479715</v>
+        <v>0.5427411558898854</v>
       </c>
       <c r="D12">
-        <v>0.3863281960359473</v>
+        <v>0.4407778730176233</v>
+      </c>
+      <c r="E12">
+        <v>-0.2655153786086402</v>
+      </c>
+      <c r="F12">
+        <v>0.518090815063502</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -769,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.6081359303015148</v>
+        <v>0.6798814995711666</v>
       </c>
       <c r="C13">
-        <v>0.4880152602917036</v>
+        <v>-0.1302575746852739</v>
       </c>
       <c r="D13">
-        <v>-0.2546267300679688</v>
+        <v>0.6197778793192583</v>
       </c>
       <c r="E13">
-        <v>-0.1108182093661583</v>
+        <v>-0.2581895952015572</v>
+      </c>
+      <c r="F13">
+        <v>-0.275197604559466</v>
+      </c>
+      <c r="G13">
+        <v>-0.3500581141284727</v>
+      </c>
+      <c r="H13">
+        <v>0.009208335680156721</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -786,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.5576714204124614</v>
+        <v>0.6894340394400161</v>
       </c>
       <c r="C14">
-        <v>-0.1355979180752201</v>
+        <v>-0.1405979180752155</v>
       </c>
       <c r="D14">
-        <v>-0.102168792566701</v>
+        <v>-0.1561687925667173</v>
+      </c>
+      <c r="E14">
+        <v>-0.2933066379050331</v>
+      </c>
+      <c r="F14">
+        <v>0.01785775247961402</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -800,16 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.195917906418444</v>
+        <v>-0.2164887809099412</v>
       </c>
       <c r="C15">
-        <v>-0.1752170064679177</v>
+        <v>-0.3181701170186244</v>
       </c>
       <c r="D15">
-        <v>-0.01268178721090857</v>
+        <v>-0.05519046142160267</v>
       </c>
       <c r="E15">
-        <v>-0.3269333999542</v>
+        <v>-0.4054047787426214</v>
+      </c>
+      <c r="F15">
+        <v>-0.3466769868292516</v>
+      </c>
+      <c r="G15">
+        <v>-0.9560964446576887</v>
+      </c>
+      <c r="H15">
+        <v>-0.5396645367517721</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -817,13 +922,19 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.126965752076913</v>
+        <v>-0.006939207030597971</v>
       </c>
       <c r="C16">
-        <v>0.02685856012789151</v>
+        <v>-0.2949535872773055</v>
       </c>
       <c r="D16">
-        <v>-0.3637359371019357</v>
+        <v>-0.3071366394904516</v>
+      </c>
+      <c r="E16">
+        <v>-0.9717417483739579</v>
+      </c>
+      <c r="F16">
+        <v>-0.5764670738995079</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -831,16 +942,25 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.1540111609310202</v>
+        <v>-0.4880063605493632</v>
       </c>
       <c r="C17">
-        <v>-0.3236364516183131</v>
+        <v>-0.9429674729776563</v>
       </c>
       <c r="D17">
-        <v>-0.5677500874123353</v>
+        <v>-0.5363675884158852</v>
       </c>
       <c r="E17">
-        <v>-0.6646985397327256</v>
+        <v>-0.1261457936340662</v>
+      </c>
+      <c r="F17">
+        <v>-0.8470192486568779</v>
+      </c>
+      <c r="G17">
+        <v>-0.6769358381995687</v>
+      </c>
+      <c r="H17">
+        <v>0.02664405932519287</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -848,19 +968,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.6786440333245596</v>
+        <v>0.4659128965269874</v>
       </c>
       <c r="C18">
-        <v>-0.1965041205885711</v>
+        <v>0.2087373848952438</v>
       </c>
       <c r="D18">
-        <v>-0.2836956237172927</v>
+        <v>-0.4757732818331137</v>
       </c>
       <c r="E18">
-        <v>0.2042344420026296</v>
+        <v>-0.2436043650365889</v>
       </c>
       <c r="F18">
-        <v>0.03570973266033661</v>
+        <v>0.4076469753406258</v>
+      </c>
+      <c r="G18">
+        <v>0.2302655636430301</v>
+      </c>
+      <c r="H18">
+        <v>0.3043248032239915</v>
+      </c>
+      <c r="I18">
+        <v>0.4080162208805262</v>
+      </c>
+      <c r="J18">
+        <v>-0.2963458413824895</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -868,16 +1000,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.3559622127510664</v>
+        <v>-0.635231373995609</v>
       </c>
       <c r="C19">
-        <v>-0.4490187734141529</v>
+        <v>-0.4367133935978131</v>
       </c>
       <c r="D19">
-        <v>0.05762316071451318</v>
+        <v>0.2423238256437656</v>
       </c>
       <c r="E19">
-        <v>0.1348446391911579</v>
+        <v>0.2853077459579083</v>
+      </c>
+      <c r="F19">
+        <v>0.1577135219358751</v>
+      </c>
+      <c r="G19">
+        <v>0.3359370384861506</v>
+      </c>
+      <c r="H19">
+        <v>-0.1972109348516682</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -885,25 +1026,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.2596379771730142</v>
+        <v>0.4317046218849043</v>
       </c>
       <c r="C20">
-        <v>0.33170462188491</v>
+        <v>0.4308082977510565</v>
       </c>
       <c r="D20">
-        <v>0.3317949831062492</v>
+        <v>0.431794983106272</v>
       </c>
       <c r="E20">
-        <v>0.02381211141708661</v>
+        <v>0.6353487241568843</v>
       </c>
       <c r="F20">
-        <v>1.024067473483612</v>
+        <v>-0.0002605909365769321</v>
       </c>
       <c r="G20">
-        <v>0.7614280992174542</v>
+        <v>1.024067473483584</v>
       </c>
       <c r="H20">
-        <v>-0.2999999999999858</v>
+        <v>-0.08540156658732201</v>
+      </c>
+      <c r="I20">
+        <v>0.2999999999999858</v>
+      </c>
+      <c r="J20">
+        <v>-1.128071843823108</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -911,22 +1058,25 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.1317046218849214</v>
+        <v>0.2317949831062833</v>
       </c>
       <c r="C21">
-        <v>0.08179498310627761</v>
+        <v>0.38534872415687</v>
       </c>
       <c r="D21">
-        <v>-0.2261878885828992</v>
+        <v>-0.2502605909365485</v>
       </c>
       <c r="E21">
         <v>0.7740674734835977</v>
       </c>
       <c r="F21">
-        <v>0.5114280992174685</v>
+        <v>-0.3354015665873362</v>
       </c>
       <c r="G21">
-        <v>-0.55</v>
+        <v>0.04999999999999999</v>
+      </c>
+      <c r="H21">
+        <v>-1.378071843823122</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -934,31 +1084,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.001886993551323712</v>
+        <v>-0.3301685804915024</v>
       </c>
       <c r="C22">
-        <v>-0.1761878885829163</v>
+        <v>0.8240674734835807</v>
       </c>
       <c r="D22">
-        <v>0.8240674734835807</v>
+        <v>-0.2854015665873533</v>
       </c>
       <c r="E22">
-        <v>0.5614280992174514</v>
+        <v>0.09999999999998288</v>
       </c>
       <c r="F22">
-        <v>-0.5000000000000171</v>
+        <v>-1.328071843823139</v>
       </c>
       <c r="G22">
-        <v>0.5951285663450391</v>
+        <v>0.5999999999999829</v>
       </c>
       <c r="H22">
-        <v>0.5999999999999829</v>
+        <v>-0.2022917647287983</v>
       </c>
       <c r="I22">
-        <v>-0.4916058519991538</v>
+        <v>-0.4548838929130881</v>
       </c>
       <c r="J22">
-        <v>-0.2670926739444042</v>
+        <v>-0.04946372141306199</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -966,28 +1116,28 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.2761878885828964</v>
+        <v>0.7240674734836006</v>
       </c>
       <c r="C23">
-        <v>0.8240674734835807</v>
+        <v>-0.2854015665873533</v>
       </c>
       <c r="D23">
-        <v>0.6614280992174741</v>
+        <v>0.2000000000000057</v>
       </c>
       <c r="E23">
-        <v>-0.3999999999999944</v>
+        <v>-1.228071843823116</v>
       </c>
       <c r="F23">
-        <v>0.6951285663450619</v>
+        <v>0.7000000000000057</v>
       </c>
       <c r="G23">
-        <v>0.7000000000000057</v>
+        <v>-0.1022917647287755</v>
       </c>
       <c r="H23">
-        <v>-0.4916058519991538</v>
+        <v>-0.4548838929130881</v>
       </c>
       <c r="I23">
-        <v>-0.2670926739444042</v>
+        <v>-0.04946372141306199</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -995,25 +1145,25 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>1.024067473483584</v>
+        <v>-0.08540156658735043</v>
       </c>
       <c r="C24">
-        <v>0.8614280992174628</v>
+        <v>0.3999999999999943</v>
       </c>
       <c r="D24">
-        <v>-0.3999999999999944</v>
+        <v>-1.228071843823116</v>
       </c>
       <c r="E24">
-        <v>0.795128566345042</v>
+        <v>0.7999999999999858</v>
       </c>
       <c r="F24">
-        <v>0.7999999999999858</v>
+        <v>-0.002291764728795442</v>
       </c>
       <c r="G24">
-        <v>-0.391605851999131</v>
+        <v>-0.3548838929130653</v>
       </c>
       <c r="H24">
-        <v>-0.1670926739443814</v>
+        <v>0.0505362785869608</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1021,34 +1171,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.8614280992174628</v>
+        <v>0.3999999999999943</v>
       </c>
       <c r="C25">
-        <v>-0.3999999999999944</v>
+        <v>-1.228071843823116</v>
       </c>
       <c r="D25">
-        <v>0.795128566345042</v>
+        <v>0.7999999999999858</v>
       </c>
       <c r="E25">
-        <v>0.7999999999999858</v>
+        <v>-0.002291764728795442</v>
       </c>
       <c r="F25">
-        <v>-0.391605851999131</v>
+        <v>-0.3548838929130653</v>
       </c>
       <c r="G25">
-        <v>-0.1670926739443814</v>
+        <v>0.0505362785869608</v>
       </c>
       <c r="H25">
-        <v>-0.9812258865275252</v>
+        <v>0.07999999999998691</v>
       </c>
       <c r="I25">
-        <v>0.07999999999998691</v>
+        <v>-1.170185044412051</v>
       </c>
       <c r="J25">
-        <v>-1.170185044412051</v>
+        <v>-0.06999999900001797</v>
       </c>
       <c r="K25">
-        <v>-0.4802901972718701</v>
+        <v>-0.4200000000000301</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1056,31 +1206,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.3</v>
+        <v>-1.128071843823122</v>
       </c>
       <c r="C26">
-        <v>0.9951285663450562</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0.8999999999999999</v>
+        <v>0.09770823527121875</v>
       </c>
       <c r="E26">
-        <v>-0.3916058519991367</v>
+        <v>-0.354883892913071</v>
       </c>
       <c r="F26">
-        <v>-0.2670926739443871</v>
+        <v>-0.04946372141304489</v>
       </c>
       <c r="G26">
-        <v>-0.9612258865275121</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="H26">
-        <v>0.2</v>
+        <v>-1.050185044412038</v>
       </c>
       <c r="I26">
-        <v>-1.050185044412038</v>
+        <v>0.05000000099999513</v>
       </c>
       <c r="J26">
-        <v>-0.360290197271857</v>
+        <v>-0.300000000000017</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1088,28 +1238,28 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0.9600214630821426</v>
+        <v>0.9648928967370864</v>
       </c>
       <c r="C27">
-        <v>0.8799999999999841</v>
+        <v>0.07770823527120285</v>
       </c>
       <c r="D27">
-        <v>-0.4416058519991282</v>
+        <v>-0.4048838929130625</v>
       </c>
       <c r="E27">
-        <v>-0.2170926739443786</v>
+        <v>0.0005362785869636455</v>
       </c>
       <c r="F27">
-        <v>-0.8312258865275195</v>
+        <v>0.2299999999999926</v>
       </c>
       <c r="G27">
-        <v>0.2099999999999966</v>
+        <v>-1.040185044412042</v>
       </c>
       <c r="H27">
-        <v>-1.070185044412057</v>
+        <v>0.0300000009999763</v>
       </c>
       <c r="I27">
-        <v>-0.4002901972718576</v>
+        <v>-0.3400000000000177</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1117,25 +1267,25 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.1977082352712187</v>
       </c>
       <c r="C28">
-        <v>-0.3916058519991367</v>
+        <v>-0.354883892913071</v>
       </c>
       <c r="D28">
-        <v>-0.06709267394438712</v>
+        <v>0.1505362785869551</v>
       </c>
       <c r="E28">
-        <v>-0.7612258865275121</v>
+        <v>0.3</v>
       </c>
       <c r="F28">
-        <v>0.3</v>
+        <v>-0.9501850444120381</v>
       </c>
       <c r="G28">
-        <v>-1.050185044412038</v>
+        <v>0.05000000099999513</v>
       </c>
       <c r="H28">
-        <v>-0.460290197271857</v>
+        <v>-0.4000000000000171</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1143,34 +1293,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.3916150508384533</v>
+        <v>-0.3548930917523876</v>
       </c>
       <c r="C29">
-        <v>-0.06709267394440133</v>
+        <v>0.1505362785869409</v>
       </c>
       <c r="D29">
-        <v>-0.7412258865275019</v>
+        <v>0.3200000000000102</v>
       </c>
       <c r="E29">
-        <v>0.2999999999999858</v>
+        <v>-0.9501850444120523</v>
       </c>
       <c r="F29">
-        <v>-1.01018504441204</v>
+        <v>0.09000000099999284</v>
       </c>
       <c r="G29">
-        <v>-0.3202901972718593</v>
+        <v>-0.2600000000000193</v>
       </c>
       <c r="H29">
-        <v>0.9462757877985695</v>
+        <v>-0.2600000000000193</v>
       </c>
       <c r="I29">
-        <v>0.240008545046976</v>
+        <v>-0.3599999999999994</v>
       </c>
       <c r="J29">
-        <v>-1.369651846369791</v>
+        <v>1.239999999999995</v>
       </c>
       <c r="K29">
-        <v>2.65850917732945</v>
+        <v>-0.05999999999998806</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1178,31 +1328,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.04709267394437688</v>
+        <v>0.1705362785869654</v>
       </c>
       <c r="C30">
-        <v>-0.7412258865275019</v>
+        <v>0.3200000000000102</v>
       </c>
       <c r="D30">
-        <v>0.3200000000000102</v>
+        <v>-0.9301850444120279</v>
       </c>
       <c r="E30">
-        <v>-0.9501850444120523</v>
+        <v>0.1500000009999809</v>
       </c>
       <c r="F30">
-        <v>-0.2602901972718712</v>
+        <v>-0.2000000000000313</v>
       </c>
       <c r="G30">
-        <v>1.006275787798558</v>
+        <v>-0.2000000000000313</v>
       </c>
       <c r="H30">
-        <v>0.3000085450469641</v>
+        <v>-0.3000000000000114</v>
       </c>
       <c r="I30">
-        <v>-1.329651846369799</v>
+        <v>1.279999999999987</v>
       </c>
       <c r="J30">
-        <v>2.698509177329442</v>
+        <v>-0.01999999999999597</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1210,28 +1360,28 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.6612258865275178</v>
+        <v>0.3999999999999943</v>
       </c>
       <c r="C31">
-        <v>0.5999999999999972</v>
+        <v>-0.6501850444120409</v>
       </c>
       <c r="D31">
-        <v>-0.9501850444120523</v>
+        <v>0.1500000009999809</v>
       </c>
       <c r="E31">
-        <v>-0.3002901972718633</v>
+        <v>-0.2400000000000234</v>
       </c>
       <c r="F31">
-        <v>0.9962757877985666</v>
+        <v>-0.2100000000000222</v>
       </c>
       <c r="G31">
-        <v>0.2900085450469732</v>
+        <v>-0.3100000000000023</v>
       </c>
       <c r="H31">
-        <v>-1.319651846369794</v>
+        <v>1.289999999999992</v>
       </c>
       <c r="I31">
-        <v>2.708509177329447</v>
+        <v>-0.009999999999990905</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1239,25 +1389,25 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.3</v>
+        <v>-0.9501850444120381</v>
       </c>
       <c r="C32">
-        <v>-0.05018504441203819</v>
+        <v>1.050000000999995</v>
       </c>
       <c r="D32">
-        <v>0.03970980272814306</v>
+        <v>0.09999999999998299</v>
       </c>
       <c r="E32">
-        <v>0.8062757877985718</v>
+        <v>-0.4000000000000171</v>
       </c>
       <c r="F32">
-        <v>0.2000085450469783</v>
+        <v>-0.3999999999999971</v>
       </c>
       <c r="G32">
-        <v>-1.409651846369789</v>
+        <v>1.199999999999997</v>
       </c>
       <c r="H32">
-        <v>2.618509177329452</v>
+        <v>-0.09999999999998577</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1265,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1.100185045412033</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>-0.1602901972718627</v>
+        <v>-0.1000000000000227</v>
       </c>
       <c r="D33">
-        <v>0.9062757877985774</v>
+        <v>-0.3000000000000114</v>
       </c>
       <c r="E33">
-        <v>0.200008545046984</v>
+        <v>-0.3999999999999915</v>
       </c>
       <c r="F33">
-        <v>-1.409651846369783</v>
+        <v>1.200000000000003</v>
       </c>
       <c r="G33">
-        <v>2.618509177329458</v>
+        <v>-0.0999999999999801</v>
       </c>
       <c r="H33">
-        <v>-0.5580856546984592</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="I33">
-        <v>0.3315486822015572</v>
+        <v>-0.1000000000000085</v>
       </c>
       <c r="J33">
-        <v>-1.944079640195553</v>
+        <v>-0.3000000000000114</v>
       </c>
       <c r="K33">
-        <v>0.40000558765135</v>
+        <v>1.399999999999991</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1300,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.06029019727183993</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>0.9062757877985774</v>
+        <v>-0.3000000000000114</v>
       </c>
       <c r="D34">
-        <v>0.200008545046984</v>
+        <v>-0.3999999999999915</v>
       </c>
       <c r="E34">
-        <v>-1.609651846369786</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>2.418509177329455</v>
+        <v>-0.299999999999983</v>
       </c>
       <c r="G34">
-        <v>-0.758085654698462</v>
+        <v>0.1999999999999744</v>
       </c>
       <c r="H34">
-        <v>0.1315486822015543</v>
+        <v>-0.3000000000000114</v>
       </c>
       <c r="I34">
-        <v>-2.144079640195556</v>
+        <v>-0.5000000000000142</v>
       </c>
       <c r="J34">
-        <v>0.1000055876513386</v>
+        <v>1.09999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1332,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1.206275787798589</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.9000085450469724</v>
+        <v>0.2999999999999969</v>
       </c>
       <c r="D35">
-        <v>-1.509651846369806</v>
+        <v>1.09999999999998</v>
       </c>
       <c r="E35">
-        <v>2.418509177329455</v>
+        <v>-0.299999999999983</v>
       </c>
       <c r="F35">
-        <v>-0.8580856546984705</v>
+        <v>0.09999999999996589</v>
       </c>
       <c r="G35">
-        <v>0.03154868220154583</v>
+        <v>-0.4000000000000199</v>
       </c>
       <c r="H35">
-        <v>-2.244079640195565</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="I35">
-        <v>0.1000055876513386</v>
+        <v>1.09999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1361,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.6000085450469754</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>-1.309651846369803</v>
+        <v>1.299999999999983</v>
       </c>
       <c r="D36">
-        <v>1.818509177329461</v>
+        <v>-0.8999999999999773</v>
       </c>
       <c r="E36">
-        <v>-1.558085654698459</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="F36">
-        <v>0.1315486822015543</v>
+        <v>-0.3000000000000114</v>
       </c>
       <c r="G36">
-        <v>-1.844079640195573</v>
+        <v>-0.2000000000000313</v>
       </c>
       <c r="H36">
-        <v>0.5000055876513301</v>
+        <v>1.499999999999972</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1387,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-2.609651846369786</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1.518509177329449</v>
+        <v>-1.199999999999989</v>
       </c>
       <c r="D37">
-        <v>-0.9580856546984649</v>
+        <v>-2.842170943040401E-14</v>
       </c>
       <c r="E37">
-        <v>0.03154868220154583</v>
+        <v>-0.4000000000000199</v>
       </c>
       <c r="F37">
-        <v>-2.244079640195565</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="G37">
-        <v>0.1000055876513386</v>
+        <v>1.09999999999998</v>
       </c>
       <c r="H37">
-        <v>-0.5233623182505625</v>
+        <v>0.5999999999999943</v>
       </c>
       <c r="I37">
-        <v>4.987355777631223</v>
+        <v>-2.700000000000003</v>
       </c>
       <c r="J37">
-        <v>0.02253521981180029</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="K37">
-        <v>-0.1231996868497021</v>
+        <v>-0.1000000000000085</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1422,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>2.718509177329438</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>-0.6580856546984819</v>
+        <v>0.2999999999999545</v>
       </c>
       <c r="D38">
-        <v>-0.6684513177984428</v>
+        <v>-1.100000000000009</v>
       </c>
       <c r="E38">
-        <v>-2.944079640195553</v>
+        <v>-1.300000000000011</v>
       </c>
       <c r="F38">
-        <v>0.1000055876513386</v>
+        <v>1.09999999999998</v>
       </c>
       <c r="G38">
-        <v>-0.4733623182505511</v>
+        <v>0.6500000000000057</v>
       </c>
       <c r="H38">
-        <v>5.087355777631231</v>
+        <v>-2.599999999999994</v>
       </c>
       <c r="I38">
-        <v>0.1225352198118088</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="J38">
-        <v>-0.02319968684972201</v>
+        <v>-2.839395385478838E-14</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1454,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.9580856546984364</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>-0.2684513177984513</v>
+        <v>-0.7000000000000171</v>
       </c>
       <c r="D39">
-        <v>-2.744079640195565</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="E39">
-        <v>0.3000055876513272</v>
+        <v>1.299999999999969</v>
       </c>
       <c r="F39">
-        <v>-0.423362318250554</v>
+        <v>0.7000000000000028</v>
       </c>
       <c r="G39">
-        <v>5.087355777631231</v>
+        <v>-2.599999999999994</v>
       </c>
       <c r="H39">
-        <v>0.1225352198118088</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="I39">
-        <v>-0.02319968684969362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1483,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.4315486822015657</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>-2.244079640195565</v>
+        <v>-0.6000000000000227</v>
       </c>
       <c r="D40">
-        <v>0.3000055876513272</v>
+        <v>1.299999999999969</v>
       </c>
       <c r="E40">
-        <v>-0.423362318250554</v>
+        <v>0.7000000000000028</v>
       </c>
       <c r="F40">
-        <v>5.237355777631237</v>
+        <v>-2.449999999999989</v>
       </c>
       <c r="G40">
-        <v>0.2225352198117889</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="H40">
-        <v>0.07680031315028649</v>
+        <v>0.0999999999999801</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1509,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-1.644079640195542</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>-0.1999944123486301</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="D41">
-        <v>-0.123362318250571</v>
+        <v>0.9999999999999858</v>
       </c>
       <c r="E41">
-        <v>5.387355777631214</v>
+        <v>-2.300000000000011</v>
       </c>
       <c r="F41">
-        <v>0.2225352198117889</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="G41">
-        <v>0.07680031315028649</v>
+        <v>0.0999999999999801</v>
       </c>
       <c r="H41">
-        <v>-0.04731290373116803</v>
+        <v>0.399999999999963</v>
       </c>
       <c r="I41">
-        <v>0.7268782796002569</v>
+        <v>0.1000000000000086</v>
       </c>
       <c r="J41">
-        <v>-0.7346752961032761</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="K41">
-        <v>-0.1343669380733701</v>
+        <v>0.1999999999999886</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1544,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.9999944123486415</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>-0.423362318250554</v>
+        <v>0.7000000000000028</v>
       </c>
       <c r="D42">
-        <v>5.687355777631225</v>
+        <v>-2</v>
       </c>
       <c r="E42">
-        <v>0.3225352198118117</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="F42">
-        <v>-0.1231996868497021</v>
+        <v>-0.1000000000000085</v>
       </c>
       <c r="G42">
-        <v>-0.04731290373115382</v>
+        <v>0.3999999999999772</v>
       </c>
       <c r="H42">
-        <v>0.9268782796002313</v>
+        <v>0.299999999999983</v>
       </c>
       <c r="I42">
-        <v>-0.9346752961032647</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>-0.3343669380733871</v>
+        <v>-2.842170943040401E-14</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1576,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-1.123362318250557</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>5.287355777631234</v>
+        <v>-2.399999999999991</v>
       </c>
       <c r="D43">
-        <v>0.3225352198118117</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="E43">
-        <v>-0.1231996868497021</v>
+        <v>-0.1000000000000085</v>
       </c>
       <c r="F43">
-        <v>-0.04731290373115382</v>
+        <v>0.3999999999999772</v>
       </c>
       <c r="G43">
-        <v>0.7268782796002284</v>
+        <v>0.0999999999999801</v>
       </c>
       <c r="H43">
-        <v>-0.7346752961032761</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="I43">
-        <v>-0.1343669380733701</v>
+        <v>0.1999999999999886</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1605,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>7.687355777631225</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>-0.07746478018819403</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.3768003131502979</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="E44">
-        <v>0.05268709626886897</v>
+        <v>0.5</v>
       </c>
       <c r="F44">
-        <v>0.6268782796002483</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>-0.8346752961032562</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="H44">
-        <v>-0.2343669380733502</v>
+        <v>0.1000000000000085</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1631,31 +1781,31 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>-0.07746478018819403</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.07680031315028649</v>
+        <v>0.0999999999999801</v>
       </c>
       <c r="D45">
-        <v>0.1526870962688491</v>
+        <v>0.5999999999999801</v>
       </c>
       <c r="E45">
-        <v>0.6268782796002483</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>-0.8346752961032562</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="G45">
-        <v>-0.2343669380733502</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="H45">
-        <v>-0.1160091367467971</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="I45">
-        <v>0.5423454266220915</v>
+        <v>-0.299999999999983</v>
       </c>
       <c r="J45">
-        <v>-0.5919400257838703</v>
+        <v>-0.2000000000000171</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1663,28 +1813,28 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.02319968684969362</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>-0.1473129037311339</v>
+        <v>0.2999999999999971</v>
       </c>
       <c r="D46">
-        <v>0.6268782796002483</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>-0.7346752961032761</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="F46">
-        <v>-0.1343669380733701</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="G46">
-        <v>-0.01600913674677429</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="H46">
-        <v>0.7423454266220944</v>
+        <v>-0.0999999999999801</v>
       </c>
       <c r="I46">
-        <v>-0.3919400257838674</v>
+        <v>-1.4210854715202E-14</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1692,25 +1842,25 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.447312903731131</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>0.3268782796002654</v>
+        <v>-0.2999999999999829</v>
       </c>
       <c r="D47">
-        <v>-0.9346752961032647</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>-0.2343669380733502</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="F47">
-        <v>-0.01600913674677429</v>
+        <v>0.4000000000000057</v>
       </c>
       <c r="G47">
-        <v>0.7423454266220944</v>
+        <v>-0.0999999999999801</v>
       </c>
       <c r="H47">
-        <v>-0.3919400257838674</v>
+        <v>-1.4210854715202E-14</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1718,22 +1868,22 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0.6268782796002483</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>-0.8346752961032562</v>
+        <v>0.1000000000000085</v>
       </c>
       <c r="D48">
-        <v>-0.1343669380733701</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="E48">
-        <v>-0.0560091367467806</v>
+        <v>0.3599999999999994</v>
       </c>
       <c r="F48">
-        <v>0.7023454266220881</v>
+        <v>-0.1399999999999864</v>
       </c>
       <c r="G48">
-        <v>-0.4319400257838737</v>
+        <v>-0.04000000000002052</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1741,19 +1891,19 @@
         <v>57</v>
       </c>
       <c r="B49">
-        <v>-0.9346752961032647</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>-0.3343669380733587</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-0.2160091367467772</v>
+        <v>0.2000000000000028</v>
       </c>
       <c r="E49">
-        <v>0.6423454266220716</v>
+        <v>-0.2000000000000029</v>
       </c>
       <c r="F49">
-        <v>-0.4919400257838902</v>
+        <v>-0.100000000000037</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1761,16 +1911,16 @@
         <v>58</v>
       </c>
       <c r="B50">
-        <v>-0.3343669380733587</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>-0.3160091367467857</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="D50">
-        <v>0.5423454266220915</v>
+        <v>-0.299999999999983</v>
       </c>
       <c r="E50">
-        <v>-0.4919400257838902</v>
+        <v>-0.100000000000037</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1778,13 +1928,13 @@
         <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.41600913674678</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>0.3423454266220887</v>
+        <v>-0.4999999999999858</v>
       </c>
       <c r="D51">
-        <v>-0.6919400257838788</v>
+        <v>-0.3000000000000256</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1792,10 +1942,10 @@
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0.8423454266220745</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>-0.3919400257838674</v>
+        <v>-1.4210854715202E-14</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1803,7 +1953,7 @@
         <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.3919400257838532</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PUBCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/PUBCON/Data/ifo_err/ifo_qoq_errors_first_eval.xlsx
@@ -1195,10 +1195,10 @@
         <v>-1.170185044412051</v>
       </c>
       <c r="J25">
-        <v>-0.06999999900001797</v>
+        <v>-0.4802901972718701</v>
       </c>
       <c r="K25">
-        <v>-0.4200000000000301</v>
+        <v>0.7862757877985587</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1227,10 +1227,10 @@
         <v>-1.050185044412038</v>
       </c>
       <c r="I26">
-        <v>0.05000000099999513</v>
+        <v>-0.360290197271857</v>
       </c>
       <c r="J26">
-        <v>-0.300000000000017</v>
+        <v>0.9062757877985718</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1256,10 +1256,10 @@
         <v>-1.040185044412042</v>
       </c>
       <c r="H27">
-        <v>0.0300000009999763</v>
+        <v>-0.3802901972718758</v>
       </c>
       <c r="I27">
-        <v>-0.3400000000000177</v>
+        <v>0.8662757877985712</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1282,10 +1282,10 @@
         <v>-0.9501850444120381</v>
       </c>
       <c r="G28">
-        <v>0.05000000099999513</v>
+        <v>-0.360290197271857</v>
       </c>
       <c r="H28">
-        <v>-0.4000000000000171</v>
+        <v>0.8062757877985718</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1305,22 +1305,22 @@
         <v>-0.9501850444120523</v>
       </c>
       <c r="F29">
-        <v>0.09000000099999284</v>
+        <v>-0.3202901972718593</v>
       </c>
       <c r="G29">
-        <v>-0.2600000000000193</v>
+        <v>0.9462757877985695</v>
       </c>
       <c r="H29">
-        <v>-0.2600000000000193</v>
+        <v>0.240008545046976</v>
       </c>
       <c r="I29">
-        <v>-0.3599999999999994</v>
+        <v>-1.369651846369791</v>
       </c>
       <c r="J29">
-        <v>1.239999999999995</v>
+        <v>2.65850917732945</v>
       </c>
       <c r="K29">
-        <v>-0.05999999999998806</v>
+        <v>-0.5180856546984671</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1337,22 +1337,22 @@
         <v>-0.9301850444120279</v>
       </c>
       <c r="E30">
-        <v>0.1500000009999809</v>
+        <v>-0.2602901972718712</v>
       </c>
       <c r="F30">
-        <v>-0.2000000000000313</v>
+        <v>1.006275787798558</v>
       </c>
       <c r="G30">
-        <v>-0.2000000000000313</v>
+        <v>0.3000085450469641</v>
       </c>
       <c r="H30">
-        <v>-0.3000000000000114</v>
+        <v>-1.309651846369803</v>
       </c>
       <c r="I30">
-        <v>1.279999999999987</v>
+        <v>2.698509177329442</v>
       </c>
       <c r="J30">
-        <v>-0.01999999999999597</v>
+        <v>-0.478085654698475</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1366,22 +1366,22 @@
         <v>-0.6501850444120409</v>
       </c>
       <c r="D31">
-        <v>0.1500000009999809</v>
+        <v>-0.2602901972718712</v>
       </c>
       <c r="E31">
-        <v>-0.2400000000000234</v>
+        <v>0.9662757877985655</v>
       </c>
       <c r="F31">
-        <v>-0.2100000000000222</v>
+        <v>0.2900085450469732</v>
       </c>
       <c r="G31">
-        <v>-0.3100000000000023</v>
+        <v>-1.319651846369794</v>
       </c>
       <c r="H31">
-        <v>1.289999999999992</v>
+        <v>2.708509177329447</v>
       </c>
       <c r="I31">
-        <v>-0.009999999999990905</v>
+        <v>-0.46808565469847</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1392,22 +1392,22 @@
         <v>-0.9501850444120381</v>
       </c>
       <c r="C32">
-        <v>1.050000000999995</v>
+        <v>0.6397098027281429</v>
       </c>
       <c r="D32">
-        <v>0.09999999999998299</v>
+        <v>1.306275787798572</v>
       </c>
       <c r="E32">
-        <v>-0.4000000000000171</v>
+        <v>0.1000085450469783</v>
       </c>
       <c r="F32">
-        <v>-0.3999999999999971</v>
+        <v>-1.409651846369789</v>
       </c>
       <c r="G32">
-        <v>1.199999999999997</v>
+        <v>2.618509177329452</v>
       </c>
       <c r="H32">
-        <v>-0.09999999999998577</v>
+        <v>-0.5580856546984648</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1415,34 +1415,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-0.4102901982718521</v>
       </c>
       <c r="C33">
-        <v>-0.1000000000000227</v>
+        <v>1.106275787798566</v>
       </c>
       <c r="D33">
-        <v>-0.3000000000000114</v>
+        <v>0.200008545046984</v>
       </c>
       <c r="E33">
-        <v>-0.3999999999999915</v>
+        <v>-1.409651846369783</v>
       </c>
       <c r="F33">
-        <v>1.200000000000003</v>
+        <v>2.618509177329458</v>
       </c>
       <c r="G33">
-        <v>-0.0999999999999801</v>
+        <v>-0.5580856546984592</v>
       </c>
       <c r="H33">
-        <v>0.3999999999999773</v>
+        <v>0.3315486822015572</v>
       </c>
       <c r="I33">
-        <v>-0.1000000000000085</v>
+        <v>-1.944079640195553</v>
       </c>
       <c r="J33">
-        <v>-0.3000000000000114</v>
+        <v>0.40000558765135</v>
       </c>
       <c r="K33">
-        <v>1.399999999999991</v>
+        <v>-0.2233623182505511</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1450,31 +1450,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1.206275787798589</v>
       </c>
       <c r="C34">
-        <v>-0.3000000000000114</v>
+        <v>0.200008545046984</v>
       </c>
       <c r="D34">
-        <v>-0.3999999999999915</v>
+        <v>-1.409651846369783</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2.418509177329455</v>
       </c>
       <c r="F34">
-        <v>-0.299999999999983</v>
+        <v>-0.758085654698462</v>
       </c>
       <c r="G34">
-        <v>0.1999999999999744</v>
+        <v>0.1315486822015543</v>
       </c>
       <c r="H34">
-        <v>-0.3000000000000114</v>
+        <v>-2.144079640195556</v>
       </c>
       <c r="I34">
-        <v>-0.5000000000000142</v>
+        <v>0.2000055876513471</v>
       </c>
       <c r="J34">
-        <v>1.09999999999998</v>
+        <v>-0.5233623182505625</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1482,28 +1482,28 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.5000085450469953</v>
       </c>
       <c r="C35">
-        <v>0.2999999999999969</v>
+        <v>-0.7096518463697949</v>
       </c>
       <c r="D35">
-        <v>1.09999999999998</v>
+        <v>2.518509177329435</v>
       </c>
       <c r="E35">
-        <v>-0.299999999999983</v>
+        <v>-0.758085654698462</v>
       </c>
       <c r="F35">
-        <v>0.09999999999996589</v>
+        <v>0.03154868220154583</v>
       </c>
       <c r="G35">
-        <v>-0.4000000000000199</v>
+        <v>-2.244079640195565</v>
       </c>
       <c r="H35">
-        <v>-0.6000000000000227</v>
+        <v>0.1000055876513386</v>
       </c>
       <c r="I35">
-        <v>1.09999999999998</v>
+        <v>-0.5233623182505625</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1511,25 +1511,25 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>-1.009651846369792</v>
       </c>
       <c r="C36">
-        <v>1.299999999999983</v>
+        <v>2.718509177329438</v>
       </c>
       <c r="D36">
-        <v>-0.8999999999999773</v>
+        <v>-1.358085654698456</v>
       </c>
       <c r="E36">
-        <v>-0.6000000000000227</v>
+        <v>-0.6684513177984428</v>
       </c>
       <c r="F36">
-        <v>-0.3000000000000114</v>
+        <v>-2.144079640195556</v>
       </c>
       <c r="G36">
-        <v>-0.2000000000000313</v>
+        <v>0.5000055876513301</v>
       </c>
       <c r="H36">
-        <v>1.499999999999972</v>
+        <v>-0.123362318250571</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1537,34 +1537,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1.418509177329455</v>
       </c>
       <c r="C37">
-        <v>-1.199999999999989</v>
+        <v>-1.658085654698468</v>
       </c>
       <c r="D37">
-        <v>-2.842170943040401E-14</v>
+        <v>-0.06845131779844849</v>
       </c>
       <c r="E37">
-        <v>-0.4000000000000199</v>
+        <v>-2.244079640195565</v>
       </c>
       <c r="F37">
-        <v>-0.6000000000000227</v>
+        <v>0.1000055876513386</v>
       </c>
       <c r="G37">
-        <v>1.09999999999998</v>
+        <v>-0.5233623182505625</v>
       </c>
       <c r="H37">
-        <v>0.5999999999999943</v>
+        <v>4.987355777631223</v>
       </c>
       <c r="I37">
-        <v>-2.700000000000003</v>
+        <v>0.02253521981180029</v>
       </c>
       <c r="J37">
-        <v>0.09999999999999432</v>
+        <v>-0.1231996868497021</v>
       </c>
       <c r="K37">
-        <v>-0.1000000000000085</v>
+        <v>-0.2473129037311424</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1572,31 +1572,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-0.4580856546984791</v>
       </c>
       <c r="C38">
-        <v>0.2999999999999545</v>
+        <v>0.2315486822015344</v>
       </c>
       <c r="D38">
-        <v>-1.100000000000009</v>
+        <v>-2.944079640195553</v>
       </c>
       <c r="E38">
-        <v>-1.300000000000011</v>
+        <v>-0.59999441234865</v>
       </c>
       <c r="F38">
-        <v>1.09999999999998</v>
+        <v>-0.5233623182505625</v>
       </c>
       <c r="G38">
-        <v>0.6500000000000057</v>
+        <v>5.037355777631234</v>
       </c>
       <c r="H38">
-        <v>-2.599999999999994</v>
+        <v>0.1225352198118088</v>
       </c>
       <c r="I38">
-        <v>0.2000000000000028</v>
+        <v>-0.02319968684969362</v>
       </c>
       <c r="J38">
-        <v>-2.839395385478838E-14</v>
+        <v>-0.1473129037311623</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1604,28 +1604,28 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-0.06845131779842006</v>
       </c>
       <c r="C39">
-        <v>-0.7000000000000171</v>
+        <v>-2.544079640195562</v>
       </c>
       <c r="D39">
-        <v>-1.100000000000023</v>
+        <v>-0.3999944123486614</v>
       </c>
       <c r="E39">
-        <v>1.299999999999969</v>
+        <v>-0.3233623182505739</v>
       </c>
       <c r="F39">
-        <v>0.7000000000000028</v>
+        <v>5.087355777631231</v>
       </c>
       <c r="G39">
-        <v>-2.599999999999994</v>
+        <v>0.1225352198118088</v>
       </c>
       <c r="H39">
-        <v>0.2000000000000028</v>
+        <v>-0.02319968684969362</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-0.1473129037311339</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1633,25 +1633,25 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>-1.844079640195545</v>
       </c>
       <c r="C40">
-        <v>-0.6000000000000227</v>
+        <v>0.1000055876513386</v>
       </c>
       <c r="D40">
-        <v>1.299999999999969</v>
+        <v>-0.3233623182505739</v>
       </c>
       <c r="E40">
-        <v>0.7000000000000028</v>
+        <v>5.087355777631231</v>
       </c>
       <c r="F40">
-        <v>-2.449999999999989</v>
+        <v>0.2725352198118145</v>
       </c>
       <c r="G40">
-        <v>0.2999999999999829</v>
+        <v>0.07680031315028649</v>
       </c>
       <c r="H40">
-        <v>0.0999999999999801</v>
+        <v>-0.04731290373115382</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1659,34 +1659,34 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>0.7000055876513613</v>
       </c>
       <c r="C41">
-        <v>0.8000000000000114</v>
+        <v>-0.8233623182505312</v>
       </c>
       <c r="D41">
-        <v>0.9999999999999858</v>
+        <v>5.387355777631214</v>
       </c>
       <c r="E41">
-        <v>-2.300000000000011</v>
+        <v>0.4225352198117918</v>
       </c>
       <c r="F41">
-        <v>0.2999999999999829</v>
+        <v>0.07680031315028649</v>
       </c>
       <c r="G41">
-        <v>0.0999999999999801</v>
+        <v>-0.04731290373115382</v>
       </c>
       <c r="H41">
-        <v>0.399999999999963</v>
+        <v>0.7268782796002142</v>
       </c>
       <c r="I41">
-        <v>0.1000000000000086</v>
+        <v>-0.7346752961032477</v>
       </c>
       <c r="J41">
-        <v>0.1999999999999886</v>
+        <v>-0.1343669380733701</v>
       </c>
       <c r="K41">
-        <v>0.1999999999999886</v>
+        <v>-0.1160091367467971</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1694,31 +1694,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>-1.623362318250543</v>
       </c>
       <c r="C42">
-        <v>0.7000000000000028</v>
+        <v>5.087355777631231</v>
       </c>
       <c r="D42">
-        <v>-2</v>
+        <v>0.7225352198118031</v>
       </c>
       <c r="E42">
-        <v>0.4000000000000057</v>
+        <v>0.1768003131503093</v>
       </c>
       <c r="F42">
-        <v>-0.1000000000000085</v>
+        <v>-0.2473129037311424</v>
       </c>
       <c r="G42">
-        <v>0.3999999999999772</v>
+        <v>0.7268782796002284</v>
       </c>
       <c r="H42">
-        <v>0.299999999999983</v>
+        <v>-0.5346752961032732</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>-0.3343669380733587</v>
       </c>
       <c r="J42">
-        <v>-2.842170943040401E-14</v>
+        <v>-0.3160091367468141</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1726,28 +1726,28 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>4.387355777631228</v>
       </c>
       <c r="C43">
-        <v>-2.399999999999991</v>
+        <v>0.3225352198118117</v>
       </c>
       <c r="D43">
-        <v>0.4000000000000057</v>
+        <v>0.1768003131503093</v>
       </c>
       <c r="E43">
-        <v>-0.1000000000000085</v>
+        <v>-0.2473129037311424</v>
       </c>
       <c r="F43">
-        <v>0.3999999999999772</v>
+        <v>0.7268782796002284</v>
       </c>
       <c r="G43">
-        <v>0.0999999999999801</v>
+        <v>-0.7346752961032761</v>
       </c>
       <c r="H43">
-        <v>0.1999999999999886</v>
+        <v>-0.1343669380733701</v>
       </c>
       <c r="I43">
-        <v>0.1999999999999886</v>
+        <v>-0.1160091367467971</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1755,25 +1755,25 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>2.722535219811803</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-0.2231996868496964</v>
       </c>
       <c r="D44">
-        <v>0.3999999999999915</v>
+        <v>0.2526870962688576</v>
       </c>
       <c r="E44">
-        <v>0.5</v>
+        <v>0.8268782796002512</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>-0.8346752961032562</v>
       </c>
       <c r="G44">
-        <v>0.1000000000000085</v>
+        <v>-0.2343669380733502</v>
       </c>
       <c r="H44">
-        <v>0.1000000000000085</v>
+        <v>-0.2160091367467772</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1781,31 +1781,28 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.2231996868496964</v>
       </c>
       <c r="C45">
-        <v>0.0999999999999801</v>
+        <v>-0.04731290373115382</v>
       </c>
       <c r="D45">
-        <v>0.5999999999999801</v>
+        <v>0.9268782796002313</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>-0.8346752961032562</v>
       </c>
       <c r="F45">
-        <v>0.1000000000000085</v>
+        <v>-0.2343669380733502</v>
       </c>
       <c r="G45">
-        <v>0.1000000000000085</v>
+        <v>-0.2160091367467772</v>
       </c>
       <c r="H45">
-        <v>0.2999999999999829</v>
+        <v>0.6423454266220716</v>
       </c>
       <c r="I45">
-        <v>-0.299999999999983</v>
-      </c>
-      <c r="J45">
-        <v>-0.2000000000000171</v>
+        <v>-0.5919400257838703</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1813,28 +1810,25 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-0.1473129037311339</v>
       </c>
       <c r="C46">
-        <v>0.2999999999999971</v>
+        <v>0.6268782796002483</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-0.8346752961032562</v>
       </c>
       <c r="E46">
-        <v>0.1999999999999886</v>
+        <v>-0.1343669380733701</v>
       </c>
       <c r="F46">
-        <v>0.1999999999999886</v>
+        <v>-0.1160091367467971</v>
       </c>
       <c r="G46">
-        <v>0.4000000000000057</v>
+        <v>0.7423454266220944</v>
       </c>
       <c r="H46">
-        <v>-0.0999999999999801</v>
-      </c>
-      <c r="I46">
-        <v>-1.4210854715202E-14</v>
+        <v>-0.3919400257838674</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1842,25 +1836,22 @@
         <v>55</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>0.3268782796002512</v>
       </c>
       <c r="C47">
-        <v>-0.2999999999999829</v>
+        <v>-1.134675296103239</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>-0.3343669380733587</v>
       </c>
       <c r="E47">
-        <v>0.1000000000000085</v>
+        <v>-0.2160091367467772</v>
       </c>
       <c r="F47">
-        <v>0.4000000000000057</v>
+        <v>0.7423454266220944</v>
       </c>
       <c r="G47">
-        <v>-0.0999999999999801</v>
-      </c>
-      <c r="H47">
-        <v>-1.4210854715202E-14</v>
+        <v>-0.3919400257838674</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1868,92 +1859,74 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-0.8346752961032562</v>
       </c>
       <c r="C48">
-        <v>0.1000000000000085</v>
+        <v>-0.2343669380733502</v>
       </c>
       <c r="D48">
-        <v>0.1999999999999886</v>
+        <v>-0.1160091367467971</v>
       </c>
       <c r="E48">
-        <v>0.3599999999999994</v>
+        <v>0.7023454266220881</v>
       </c>
       <c r="F48">
-        <v>-0.1399999999999864</v>
-      </c>
-      <c r="G48">
-        <v>-0.04000000000002052</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.4319400257838737</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.3343669380733587</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.3160091367467857</v>
       </c>
       <c r="D49">
-        <v>0.2000000000000028</v>
+        <v>0.5423454266220915</v>
       </c>
       <c r="E49">
-        <v>-0.2000000000000029</v>
-      </c>
-      <c r="F49">
-        <v>-0.100000000000037</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.4919400257838902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>-0.3160091367467857</v>
       </c>
       <c r="C50">
-        <v>0.09999999999999432</v>
+        <v>0.442345426622083</v>
       </c>
       <c r="D50">
-        <v>-0.299999999999983</v>
-      </c>
-      <c r="E50">
-        <v>-0.100000000000037</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.5919400257838703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>0.3423454266220887</v>
       </c>
       <c r="C51">
-        <v>-0.4999999999999858</v>
-      </c>
-      <c r="D51">
-        <v>-0.3000000000000256</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.7919400257838731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>-1.4210854715202E-14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>-0.2919400257838873</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
